--- a/2 Formulas and Functions/Formulas and Functions - 3. Min, Max, and Average.xlsx
+++ b/2 Formulas and Functions/Formulas and Functions - 3. Min, Max, and Average.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Analyst Builder\9.0 Excel for Data Analysis\4. Formulas and Functions\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4879da3f5c650214/Desktop/Excel-for-Data-Analysis - Copy/2 Formulas and Functions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87F5C20D-40B3-4D80-B385-C1171753287E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{87F5C20D-40B3-4D80-B385-C1171753287E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEFA6158-060A-4FA2-89DE-3E5884B4A4A3}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,9 +93,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
@@ -205,7 +204,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -217,9 +216,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -531,7 +527,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="127" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -550,173 +546,191 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <v>6379</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>1200</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>37</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <f>D2*E2</f>
         <v>44400</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>8691</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="11">
+      <c r="C3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="10">
         <v>1000</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>31</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <f t="shared" ref="F3:F30" si="0">D3*E3</f>
         <v>31000</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>2593</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>3</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>5000</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>10</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="6"/>
+      <c r="I4" s="4">
+        <f>MIN($E:$E)</f>
+        <v>10</v>
+      </c>
+      <c r="J4" s="5">
+        <f>MIN($F$2:$F$30)</f>
+        <v>11000</v>
+      </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>4536</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>4</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>5000</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>18</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <f t="shared" si="0"/>
         <v>90000</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="6"/>
+      <c r="I5" s="4">
+        <f>MAX($E:$E)</f>
+        <v>39</v>
+      </c>
+      <c r="J5" s="5">
+        <f>MAX($F$2:$F$30)</f>
+        <v>195000</v>
+      </c>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>9146</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>5</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="11">
+      <c r="C6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="10">
         <v>1000</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>24</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <f t="shared" si="0"/>
         <v>24000</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="6"/>
+      <c r="I6" s="4">
+        <f>AVERAGE($E:$E)</f>
+        <v>24.137931034482758</v>
+      </c>
+      <c r="J6" s="5">
+        <f>AVERAGE($F$2:$F$30)</f>
+        <v>50413.793103448275</v>
+      </c>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>6043</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>6</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>5000</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>20</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
@@ -726,22 +740,22 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>4215</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>7</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>1200</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>22</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <f t="shared" si="0"/>
         <v>26400</v>
       </c>
@@ -751,491 +765,518 @@
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>8623</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>8</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>5000</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>23</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <f t="shared" si="0"/>
         <v>115000</v>
       </c>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>6771</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>9</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>1200</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>20</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <f t="shared" si="0"/>
         <v>24000</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>9558</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>10</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="11">
+      <c r="C11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="10">
         <v>1000</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>27</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <f t="shared" si="0"/>
         <v>27000</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>5044</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>11</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="11">
+      <c r="C12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="10">
         <v>1000</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>19</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <f t="shared" si="0"/>
         <v>19000</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>6940</v>
       </c>
-      <c r="B13" s="8">
-        <v>12</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="B13" s="7">
+        <v>12</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>5000</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>16</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="I13" s="4">
+        <f>AVERAGEIF($C$2:$C$30, $H13, $F$2:$F$30)</f>
+        <v>26769.23076923077</v>
+      </c>
+      <c r="J13" s="4">
+        <f>_xlfn.MINIFS($F$2:$F$30,$C$2:$C$30,H13)</f>
+        <v>11000</v>
+      </c>
+      <c r="K13" s="4">
+        <f>_xlfn.MAXIFS($F$2:$F$30,$C$2:$C$30,H13)</f>
+        <v>38000</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>9250</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>13</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="11">
+      <c r="C14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="10">
         <v>1000</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>30</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
+      <c r="I14" s="4">
+        <f>AVERAGEIF($C$2:$C$30, H14, $F$2:$F$30)</f>
+        <v>34000</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" ref="J14:J15" si="1">_xlfn.MINIFS($F$2:$F$30,$C$2:$C$30,H14)</f>
+        <v>24000</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" ref="K14:K15" si="2">_xlfn.MAXIFS($F$2:$F$30,$C$2:$C$30,H14)</f>
+        <v>44400</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>4743</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>14</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <v>1200</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>33</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <f t="shared" si="0"/>
         <v>39600</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="I15" s="4">
+        <f>AVERAGEIF($C$2:$C$30, $H15, $F$2:$F$30)</f>
+        <v>91000</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="2"/>
+        <v>195000</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>4096</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>15</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <v>5000</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <v>39</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <f t="shared" si="0"/>
         <v>195000</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>4177</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>16</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="11">
+      <c r="C17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="10">
         <v>1000</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <v>38</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <f t="shared" si="0"/>
         <v>38000</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>9738</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>17</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="11">
+      <c r="C18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="10">
         <v>1000</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <v>11</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <f t="shared" si="0"/>
         <v>11000</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <v>2020</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>18</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="11">
+      <c r="C19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="10">
         <v>1000</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
         <v>24</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <f t="shared" si="0"/>
         <v>24000</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <v>5892</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>19</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="10">
         <v>1200</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="7">
         <v>32</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <f t="shared" si="0"/>
         <v>38400</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <v>7950</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>20</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="10">
         <v>5000</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="7">
         <v>13</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <f t="shared" si="0"/>
         <v>65000</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <v>3691</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>21</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="11">
+      <c r="C22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="10">
         <v>1000</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="7">
         <v>35</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="8">
         <f t="shared" si="0"/>
         <v>35000</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <v>2683</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>22</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="11">
+      <c r="C23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="10">
         <v>1000</v>
       </c>
-      <c r="E23" s="8">
-        <v>12</v>
-      </c>
-      <c r="F23" s="9">
+      <c r="E23" s="7">
+        <v>12</v>
+      </c>
+      <c r="F23" s="8">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="8">
+      <c r="A24" s="7">
         <v>3561</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>23</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="11">
+      <c r="C24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="10">
         <v>1000</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="7">
         <v>35</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="8">
         <f t="shared" si="0"/>
         <v>35000</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="8">
+      <c r="A25" s="7">
         <v>8762</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>24</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="10">
         <v>5000</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="7">
         <v>16</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="8">
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="8">
+      <c r="A26" s="7">
         <v>9787</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="7">
         <v>25</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="11">
+      <c r="C26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="10">
         <v>1000</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="7">
         <v>29</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="8">
         <f t="shared" si="0"/>
         <v>29000</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="8">
+      <c r="A27" s="7">
         <v>9334</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <v>26</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="10">
         <v>1200</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="7">
         <v>26</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="8">
         <f t="shared" si="0"/>
         <v>31200</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="8">
+      <c r="A28" s="7">
         <v>9257</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="7">
         <v>27</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="11">
+      <c r="C28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="10">
         <v>1000</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="7">
         <v>33</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="8">
         <f t="shared" si="0"/>
         <v>33000</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="8">
+      <c r="A29" s="7">
         <v>3646</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="7">
         <v>28</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="10">
         <v>5000</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="7">
         <v>16</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="8">
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="8">
+      <c r="A30" s="7">
         <v>9440</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="7">
         <v>29</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="10">
         <v>5000</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="7">
         <v>11</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="8">
         <f t="shared" si="0"/>
         <v>55000</v>
       </c>
